--- a/학습자료/단답형/한국사_대조_국가 구분.xlsx
+++ b/학습자료/단답형/한국사_대조_국가 구분.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,212 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5도에 안찰사 파견, 주, 군, 현 설치 후 지방관 파견</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>양계에 병마사를 파견, 국방상 요충지에 진을 설치</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3경을 설치 : 개경, 서경, 동경 -&gt; 개경, 서경, 남경</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4도호부 8목</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3경 - 유수
+8목 - 목사
+4도호부 - 도호부사</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>주현에 지방관 파견, 속현은 향리가 지배</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>향, 부곡, 소 존재</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>호장, 부호장을 두었다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>국왕의 친위 부대인 2군과 수도 경비 및 국경 방어를 담당하는 6위가 존재하였다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>응양군, 용호군</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>좌우위, 신호위, 흥위위</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>감문위, 금오위, 천우위</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>고려</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>국가 구분</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
